--- a/data/trans_orig/P79A7_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79A7_2023-Habitat-trans_orig.xlsx
@@ -910,7 +910,7 @@
         <v>4361</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>910</v>
+        <v>852</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>5938</v>
@@ -919,7 +919,7 @@
         <v>0.7344004979901156</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1532468500159147</v>
+        <v>0.1434048911844919</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -944,16 +944,16 @@
         <v>7596</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3767</v>
+        <v>3345</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>9173</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8280865909021824</v>
+        <v>0.8280865909021825</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4106780429385285</v>
+        <v>0.3647000768899487</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5028</v>
+        <v>5086</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2655995020098843</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8467531499840852</v>
+        <v>0.8565951088155068</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5405</v>
+        <v>5841</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1719134090978175</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5891925272350895</v>
+        <v>0.6368078714569581</v>
       </c>
     </row>
     <row r="9">
@@ -1111,7 +1111,7 @@
         <v>3499</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>642</v>
+        <v>257</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5001</v>
@@ -1120,7 +1120,7 @@
         <v>0.6996960370358533</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1283830758187578</v>
+        <v>0.05146374586688875</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         <v>3499</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>642</v>
+        <v>257</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>5001</v>
@@ -1150,7 +1150,7 @@
         <v>0.6996960370358533</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1283830758187578</v>
+        <v>0.05146374586688875</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1461,16 +1461,16 @@
         <v>10147</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6077</v>
+        <v>5152</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>13226</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7672033953803613</v>
+        <v>0.7672033953803614</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4594948975662281</v>
+        <v>0.3895267782381822</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -1495,7 +1495,7 @@
         <v>17477</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11845</v>
+        <v>12137</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>20556</v>
@@ -1504,7 +1504,7 @@
         <v>0.8502132202083884</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5762388957829572</v>
+        <v>0.5904142209495989</v>
       </c>
       <c r="W16" s="6" t="n">
         <v>1</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7149</v>
+        <v>8074</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2327966046196386</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5405051024337717</v>
+        <v>0.6104732217618178</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8711</v>
+        <v>8419</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1497867797916115</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4237611042170446</v>
+        <v>0.4095857790504011</v>
       </c>
     </row>
     <row r="18">
